--- a/BNK48_CGM48_df.xlsx
+++ b/BNK48_CGM48_df.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vitchakorn/Documents/GitHub/BNK48_CGM48_GE4_Analysis/combined_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vitchakorn/Documents/GitHub/BNK48_CGM48_GE4_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC7A54A-C215-8A4A-91A8-B3C0D6D69E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834D00A9-811B-7F4C-984F-48D8579395B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="29160" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Name_Band</t>
   </si>
   <si>
-    <t>GE4_token</t>
-  </si>
-  <si>
     <t>GE4_Transaction</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t>GE4_Position</t>
+  </si>
+  <si>
+    <t>GE4_Token</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1214,109 +1214,109 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
@@ -1324,10 +1324,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>133891.52309999999</v>
@@ -1348,19 +1348,19 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P2">
         <v>17</v>
@@ -1372,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U2">
         <v>5</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
@@ -1434,10 +1434,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>110223.63250000001</v>
@@ -1458,19 +1458,19 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P3">
         <v>18</v>
@@ -1479,7 +1479,7 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U3">
         <v>26</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="AL3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -1541,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>99316.875</v>
@@ -1565,19 +1565,19 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P4">
         <v>19</v>
@@ -1589,7 +1589,7 @@
         <v>6</v>
       </c>
       <c r="T4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U4">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="AL4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -1651,10 +1651,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>72812.569000000003</v>
@@ -1675,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P5">
         <v>26</v>
@@ -1702,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="T5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U5">
         <v>9</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -1764,10 +1764,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>52589.72</v>
@@ -1788,19 +1788,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P6">
         <v>16</v>
@@ -1809,7 +1809,7 @@
         <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U6">
         <v>33</v>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -1871,10 +1871,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>45695.807000000001</v>
@@ -1895,19 +1895,19 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P7">
         <v>20</v>
@@ -1919,7 +1919,7 @@
         <v>18</v>
       </c>
       <c r="T7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U7">
         <v>12</v>
@@ -1973,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -1981,10 +1981,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>44281.08</v>
@@ -2005,19 +2005,19 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P8">
         <v>17</v>
@@ -2026,7 +2026,7 @@
         <v>47</v>
       </c>
       <c r="T8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U8">
         <v>34</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
@@ -2088,10 +2088,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9">
         <v>41879.714999999997</v>
@@ -2112,19 +2112,19 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P9">
         <v>22</v>
@@ -2139,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U9">
         <v>13</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
@@ -2201,10 +2201,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10">
         <v>40197.498099999997</v>
@@ -2225,19 +2225,19 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P10">
         <v>24</v>
@@ -2249,7 +2249,7 @@
         <v>13</v>
       </c>
       <c r="T10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U10">
         <v>10</v>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="AL10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
@@ -2311,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11">
         <v>30095.809000000001</v>
@@ -2335,19 +2335,19 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P11">
         <v>18</v>
@@ -2356,7 +2356,7 @@
         <v>23</v>
       </c>
       <c r="T11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U11">
         <v>21</v>
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="AL11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -2418,10 +2418,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>29787.778999999999</v>
@@ -2442,19 +2442,19 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P12">
         <v>20</v>
@@ -2466,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="T12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U12">
         <v>23</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
@@ -2528,10 +2528,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>28193.9</v>
@@ -2552,22 +2552,22 @@
         <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P13">
         <v>19</v>
@@ -2579,7 +2579,7 @@
         <v>31</v>
       </c>
       <c r="T13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U13">
         <v>24</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
@@ -2641,10 +2641,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>27977.723000000002</v>
@@ -2665,19 +2665,19 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P14">
         <v>15</v>
@@ -2686,7 +2686,7 @@
         <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U14">
         <v>48</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
@@ -2745,10 +2745,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>27041.010999999999</v>
@@ -2769,22 +2769,22 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P15">
         <v>21</v>
@@ -2793,7 +2793,7 @@
         <v>17</v>
       </c>
       <c r="T15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U15">
         <v>16</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="AL15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
@@ -2855,10 +2855,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16">
         <v>26962.29</v>
@@ -2879,19 +2879,19 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -2900,7 +2900,7 @@
         <v>35</v>
       </c>
       <c r="T16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U16">
         <v>39</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
@@ -2959,10 +2959,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <v>26590.43</v>
@@ -2983,19 +2983,19 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P17">
         <v>21</v>
@@ -3004,7 +3004,7 @@
         <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U17">
         <v>40</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
@@ -3066,10 +3066,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>24050.537</v>
@@ -3090,19 +3090,19 @@
         <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P18">
         <v>23</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
@@ -3146,10 +3146,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>23125.451000000001</v>
@@ -3170,22 +3170,22 @@
         <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P19">
         <v>25</v>
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="T19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U19">
         <v>37</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
@@ -3256,10 +3256,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20">
         <v>22964.154999999999</v>
@@ -3280,19 +3280,19 @@
         <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P20">
         <v>20</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
@@ -3336,10 +3336,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21">
         <v>22858.315999999999</v>
@@ -3360,22 +3360,22 @@
         <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P21">
         <v>24</v>
@@ -3387,7 +3387,7 @@
         <v>22</v>
       </c>
       <c r="T21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U21">
         <v>25</v>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="AL21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
@@ -3449,10 +3449,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22">
         <v>21869.42</v>
@@ -3467,19 +3467,19 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P22">
         <v>20</v>
@@ -3488,7 +3488,7 @@
         <v>49</v>
       </c>
       <c r="T22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W22">
         <v>32</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
@@ -3544,10 +3544,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23">
         <v>19264.024000000001</v>
@@ -3568,19 +3568,19 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P23">
         <v>19</v>
@@ -3589,7 +3589,7 @@
         <v>38</v>
       </c>
       <c r="T23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U23">
         <v>31</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
@@ -3651,10 +3651,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24">
         <v>16277.759</v>
@@ -3675,19 +3675,19 @@
         <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P24">
         <v>20</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
@@ -3731,10 +3731,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25">
         <v>15760.800999999999</v>
@@ -3755,19 +3755,19 @@
         <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P25">
         <v>19</v>
@@ -3776,7 +3776,7 @@
         <v>32</v>
       </c>
       <c r="T25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U25">
         <v>35</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
@@ -3838,10 +3838,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26">
         <v>15277.52</v>
@@ -3862,19 +3862,19 @@
         <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P26">
         <v>21</v>
@@ -3883,7 +3883,7 @@
         <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X26">
         <v>2449.84</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
@@ -3936,10 +3936,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27">
         <v>12838.7814</v>
@@ -3960,22 +3960,22 @@
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P27">
         <v>28</v>
@@ -3987,7 +3987,7 @@
         <v>16</v>
       </c>
       <c r="T27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U27">
         <v>11</v>
@@ -4041,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="AL27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
@@ -4049,10 +4049,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28">
         <v>12179.68</v>
@@ -4073,19 +4073,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P28">
         <v>21</v>
@@ -4094,7 +4094,7 @@
         <v>37</v>
       </c>
       <c r="T28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U28">
         <v>20</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AL28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
@@ -4156,10 +4156,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29">
         <v>11060.566999999999</v>
@@ -4180,19 +4180,19 @@
         <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P29">
         <v>24</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
@@ -4242,10 +4242,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30">
         <v>10998.406999999999</v>
@@ -4266,19 +4266,19 @@
         <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P30">
         <v>20</v>
@@ -4290,7 +4290,7 @@
         <v>21</v>
       </c>
       <c r="T30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U30">
         <v>19</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
@@ -4352,10 +4352,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31">
         <v>8827.3970000000008</v>
@@ -4376,19 +4376,19 @@
         <v>47</v>
       </c>
       <c r="J31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P31">
         <v>21</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
@@ -4432,10 +4432,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32">
         <v>8668.2150000000001</v>
@@ -4456,19 +4456,19 @@
         <v>27</v>
       </c>
       <c r="J32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P32">
         <v>19</v>
@@ -4477,7 +4477,7 @@
         <v>33</v>
       </c>
       <c r="T32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U32">
         <v>43</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
@@ -4539,10 +4539,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33">
         <v>8506.7330000000002</v>
@@ -4563,19 +4563,19 @@
         <v>35</v>
       </c>
       <c r="J33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P33">
         <v>19</v>
@@ -4584,7 +4584,7 @@
         <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X33">
         <v>1801.33</v>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
@@ -4637,10 +4637,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34">
         <v>8379.84</v>
@@ -4661,19 +4661,19 @@
         <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K34">
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P34">
         <v>26</v>
@@ -4685,7 +4685,7 @@
         <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U34">
         <v>36</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
@@ -4747,10 +4747,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35">
         <v>8155.65</v>
@@ -4765,19 +4765,19 @@
         <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P35">
         <v>17</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
@@ -4821,10 +4821,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36">
         <v>7973.5</v>
@@ -4839,19 +4839,19 @@
         <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K36">
         <v>4</v>
       </c>
       <c r="L36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P36">
         <v>17</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
@@ -4895,10 +4895,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37">
         <v>7524.22</v>
@@ -4919,19 +4919,19 @@
         <v>40</v>
       </c>
       <c r="J37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P37">
         <v>20</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
@@ -4978,10 +4978,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38">
         <v>7240.4629999999997</v>
@@ -5002,19 +5002,19 @@
         <v>28</v>
       </c>
       <c r="J38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K38">
         <v>4</v>
       </c>
       <c r="L38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P38">
         <v>15</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
@@ -5058,10 +5058,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39">
         <v>7122.2</v>
@@ -5082,22 +5082,22 @@
         <v>34</v>
       </c>
       <c r="J39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N39" t="s">
+        <v>238</v>
+      </c>
+      <c r="O39" t="s">
         <v>239</v>
-      </c>
-      <c r="O39" t="s">
-        <v>240</v>
       </c>
       <c r="P39">
         <v>28</v>
@@ -5112,7 +5112,7 @@
         <v>27</v>
       </c>
       <c r="T39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U39">
         <v>47</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
@@ -5174,10 +5174,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40">
         <v>7115.49</v>
@@ -5198,19 +5198,19 @@
         <v>32</v>
       </c>
       <c r="J40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P40">
         <v>25</v>
@@ -5219,7 +5219,7 @@
         <v>28</v>
       </c>
       <c r="T40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U40">
         <v>30</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
@@ -5281,10 +5281,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41">
         <v>6670.5</v>
@@ -5305,19 +5305,19 @@
         <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P41">
         <v>20</v>
@@ -5326,7 +5326,7 @@
         <v>45</v>
       </c>
       <c r="T41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U41">
         <v>41</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
@@ -5388,10 +5388,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42">
         <v>6087.9687999999996</v>
@@ -5409,22 +5409,22 @@
         <v>437.73</v>
       </c>
       <c r="J42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P42">
         <v>23</v>
@@ -5436,7 +5436,7 @@
         <v>39</v>
       </c>
       <c r="T42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X42">
         <v>4839.99</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
@@ -5489,10 +5489,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43">
         <v>5974.46</v>
@@ -5504,19 +5504,19 @@
         <v>167</v>
       </c>
       <c r="J43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P43">
         <v>23</v>
@@ -5525,7 +5525,7 @@
         <v>52</v>
       </c>
       <c r="T43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X43">
         <v>2577.96</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
@@ -5578,10 +5578,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44">
         <v>5969.8379000000004</v>
@@ -5602,19 +5602,19 @@
         <v>48</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P44">
         <v>16</v>
@@ -5623,7 +5623,7 @@
         <v>61</v>
       </c>
       <c r="T44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X44">
         <v>300.01</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
@@ -5676,10 +5676,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45">
         <v>5851.6279999999997</v>
@@ -5700,19 +5700,19 @@
         <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K45">
         <v>4</v>
       </c>
       <c r="L45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P45">
         <v>16</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.2">
@@ -5756,10 +5756,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46">
         <v>5697.39</v>
@@ -5771,19 +5771,19 @@
         <v>155</v>
       </c>
       <c r="J46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P46">
         <v>17</v>
@@ -5792,7 +5792,7 @@
         <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X46">
         <v>1059.93</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AL46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
@@ -5845,10 +5845,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47">
         <v>5683.01</v>
@@ -5869,19 +5869,19 @@
         <v>33</v>
       </c>
       <c r="J47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
       <c r="L47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P47">
         <v>16</v>
@@ -5890,7 +5890,7 @@
         <v>46</v>
       </c>
       <c r="T47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U47">
         <v>42</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
@@ -5949,10 +5949,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48">
         <v>5554.1450000000004</v>
@@ -5973,19 +5973,19 @@
         <v>41</v>
       </c>
       <c r="J48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P48">
         <v>20</v>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
@@ -6035,10 +6035,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49">
         <v>5386.8410000000003</v>
@@ -6056,19 +6056,19 @@
         <v>372.82</v>
       </c>
       <c r="J49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K49">
         <v>4</v>
       </c>
       <c r="L49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P49">
         <v>20</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
@@ -6112,10 +6112,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50">
         <v>5330.0540000000001</v>
@@ -6136,19 +6136,19 @@
         <v>24</v>
       </c>
       <c r="J50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K50">
         <v>2</v>
       </c>
       <c r="L50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P50">
         <v>24</v>
@@ -6160,7 +6160,7 @@
         <v>42</v>
       </c>
       <c r="T50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U50">
         <v>32</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
@@ -6222,10 +6222,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51">
         <v>5125.1080000000002</v>
@@ -6240,19 +6240,19 @@
         <v>38</v>
       </c>
       <c r="J51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K51">
         <v>2</v>
       </c>
       <c r="L51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P51">
         <v>21</v>
@@ -6264,7 +6264,7 @@
         <v>41</v>
       </c>
       <c r="T51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U51">
         <v>22</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="AL51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
@@ -6326,10 +6326,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52">
         <v>5084.0113000000001</v>
@@ -6350,19 +6350,19 @@
         <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K52">
         <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P52">
         <v>16</v>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
@@ -6406,10 +6406,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53">
         <v>4958.0730000000003</v>
@@ -6421,19 +6421,19 @@
         <v>219</v>
       </c>
       <c r="J53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K53">
         <v>4</v>
       </c>
       <c r="L53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P53">
         <v>22</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
@@ -6477,10 +6477,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54">
         <v>4613.6549999999997</v>
@@ -6498,19 +6498,19 @@
         <v>518.83000000000004</v>
       </c>
       <c r="J54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P54">
         <v>18</v>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="AL54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
@@ -6554,10 +6554,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D55">
         <v>3662.375</v>
@@ -6569,19 +6569,19 @@
         <v>132</v>
       </c>
       <c r="J55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P55">
         <v>16</v>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
@@ -6625,10 +6625,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56">
         <v>3046.002</v>
@@ -6649,19 +6649,19 @@
         <v>37</v>
       </c>
       <c r="J56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K56">
         <v>4</v>
       </c>
       <c r="L56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P56">
         <v>15</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="AL56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
@@ -6705,10 +6705,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57">
         <v>2243.56</v>
@@ -6720,19 +6720,19 @@
         <v>110</v>
       </c>
       <c r="J57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P57">
         <v>21</v>
@@ -6741,7 +6741,7 @@
         <v>48</v>
       </c>
       <c r="T57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U57">
         <v>46</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
@@ -6803,10 +6803,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58">
         <v>1939.96</v>
@@ -6818,19 +6818,19 @@
         <v>133</v>
       </c>
       <c r="J58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P58">
         <v>22</v>
@@ -6839,7 +6839,7 @@
         <v>62</v>
       </c>
       <c r="T58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X58">
         <v>298.70999999999998</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
@@ -6892,10 +6892,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D59">
         <v>1471.441</v>
@@ -6907,19 +6907,19 @@
         <v>145</v>
       </c>
       <c r="J59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K59">
         <v>4</v>
       </c>
       <c r="L59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P59">
         <v>14</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
@@ -6963,10 +6963,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D60">
         <v>1181.3765000000001</v>
@@ -6984,19 +6984,19 @@
         <v>655.03</v>
       </c>
       <c r="J60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P60">
         <v>20</v>
@@ -7005,7 +7005,7 @@
         <v>60</v>
       </c>
       <c r="T60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X60">
         <v>802.73</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
@@ -7058,10 +7058,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61">
         <v>920.94989999999996</v>
@@ -7073,19 +7073,19 @@
         <v>104</v>
       </c>
       <c r="J61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K61">
         <v>4</v>
       </c>
       <c r="L61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P61">
         <v>18</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="AL61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
@@ -7129,10 +7129,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62">
         <v>669.76499999999999</v>
@@ -7144,19 +7144,19 @@
         <v>112</v>
       </c>
       <c r="J62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K62">
         <v>4</v>
       </c>
       <c r="L62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P62">
         <v>14</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="AL62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
@@ -7200,10 +7200,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D63">
         <v>494.78500000000003</v>
@@ -7215,19 +7215,19 @@
         <v>158</v>
       </c>
       <c r="J63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K63">
         <v>2</v>
       </c>
       <c r="L63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P63">
         <v>16</v>
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="AL63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
@@ -7271,10 +7271,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64">
         <v>275.67099999999999</v>
@@ -7286,19 +7286,19 @@
         <v>147</v>
       </c>
       <c r="J64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K64">
         <v>2</v>
       </c>
       <c r="L64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P64">
         <v>19</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="AL64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
@@ -7342,10 +7342,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65">
         <v>209.76</v>
@@ -7357,19 +7357,19 @@
         <v>107</v>
       </c>
       <c r="J65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K65">
         <v>2</v>
       </c>
       <c r="L65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P65">
         <v>17</v>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="AL65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/BNK48_CGM48_df.xlsx
+++ b/BNK48_CGM48_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vitchakorn/Documents/GitHub/BNK48_CGM48_GE4_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834D00A9-811B-7F4C-984F-48D8579395B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA28B3-FE5B-044B-846D-87F00A13E83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="29160" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="251">
   <si>
     <t>GE4_Rank</t>
   </si>
@@ -783,6 +783,12 @@
   </si>
   <si>
     <t>GE4_Token</t>
+  </si>
+  <si>
+    <t>อรัญญา เเก้วมาลัย</t>
+  </si>
+  <si>
+    <t>GE4_Token/Transaction</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL65"/>
+  <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1170,40 +1176,41 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,103 +1230,106 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1339,97 +1349,101 @@
         <v>570</v>
       </c>
       <c r="G2">
+        <f>D2/E2</f>
+        <v>130.8812542521994</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5590.69</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>164</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>166</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>172</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>239</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>17</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>22</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>243</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>5838.43</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>59433.96</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>513</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>129</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>115.86</v>
       </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>2</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>6</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>918</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>12670</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>17831388</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>94093</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>9</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1449,94 +1463,98 @@
         <v>459</v>
       </c>
       <c r="G3">
+        <f t="shared" ref="G3:G65" si="0">D3/E3</f>
+        <v>131.06258323424495</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4159.38</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>165</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>167</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>173</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>240</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>18</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>24</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>244</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>26</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1001.39</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>20</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>9752.89</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1194</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>382</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>8.17</v>
       </c>
-      <c r="AB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>3</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
       <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>56</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1657</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>16731</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>8486508</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>60637</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>4</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1556,97 +1574,101 @@
         <v>526</v>
       </c>
       <c r="G4">
+        <f t="shared" si="0"/>
+        <v>102.70617890382627</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10419.31</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>164</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>166</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>174</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>239</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>19</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>40</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>6</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>243</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>3</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>7309.99</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>6</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>53234.8</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2369</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>929</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>22.47</v>
       </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <v>3</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>27</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
       <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>3101</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>31554</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>27935669</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>183438</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>11</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1666,100 +1688,104 @@
         <v>281</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>130.72274506283662</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6017.28</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>165</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>168</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>175</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>241</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>26</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>19</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>14</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>10</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>243</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>9</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>5102.41</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>8</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>36102.21</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1166</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>393</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>30.06</v>
       </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>5</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>2</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>148</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1404</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>45844</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>26256835</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>182763</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>9</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1779,94 +1805,98 @@
         <v>266</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
+        <v>108.65644628099174</v>
+      </c>
+      <c r="H6">
         <v>28</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1069.53</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>21</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>165</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>167</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>176</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>240</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>16</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>43</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>245</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>33</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>854.55</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>38</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>3667.27</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>737</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>235</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>4.9800000000000004</v>
       </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>3</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>5</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>43</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>714</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>13133</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>10090840</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>63289</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1886,97 +1916,101 @@
         <v>581</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>39.770067014795472</v>
+      </c>
+      <c r="H7">
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2360.0100000000002</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>164</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>166</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>177</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>239</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>20</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>39</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>18</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>244</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>12</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>4398.97</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>13</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>13671.84</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1923</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>688</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>7.11</v>
       </c>
-      <c r="AB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>3</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>7</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>2986</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>38608</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>18165534</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>287123</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>10</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1996,94 +2030,98 @@
         <v>164</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>108.00263414634146</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3642.71</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>164</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>166</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>178</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>239</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>17</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>47</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>245</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>34</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>819.8</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>43</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>3205.98</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>344</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>77</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>9.32</v>
       </c>
-      <c r="AB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AC8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>2</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>9</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
       <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>510</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>13299</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>7016340</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>88065</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>8</v>
       </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2103,100 +2141,104 @@
         <v>495</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
+        <v>41.588594836146967</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4072.13</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>165</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>168</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>179</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>241</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>22</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>13</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>8</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>11</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>243</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>13</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>3723.95</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>10</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>22671.94</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1566</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>524</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>14.48</v>
       </c>
-      <c r="AB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AC9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>6</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>15</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>101</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>11315</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>93145</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>19097770</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>380536</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>12</v>
       </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2216,97 +2258,101 @@
         <v>479</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>42.224262710084034</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2773.21</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>164</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>166</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>180</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>239</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>24</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>42</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>13</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>243</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>10</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>4797.24</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>12</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>19627.439999999999</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1502</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>512</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>13.07</v>
       </c>
-      <c r="AB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AC10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>4</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>5</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>1834</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>24084</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>26316717</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>171963</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>11</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2326,94 +2372,98 @@
         <v>481</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>34.122232426303853</v>
+      </c>
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2870.42</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>164</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>166</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>181</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>239</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>18</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>23</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>244</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>21</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1452.28</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>29</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>9778.2000000000007</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1431</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>508</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>6.83</v>
       </c>
-      <c r="AB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>3</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>15</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>1425</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>21862</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>20055674</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>185987</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>8</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>2</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2433,97 +2483,101 @@
         <v>266</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>58.869128458498018</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>11375.59</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>165</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>168</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>182</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>240</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>20</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>19</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>20</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>244</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>23</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1438.45</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>31</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>11785.22</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>884</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>282</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>13.33</v>
       </c>
-      <c r="AB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AC12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>4</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>155</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>962</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>33774</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>27532060</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>158481</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>3</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2543,100 +2597,104 @@
         <v>169</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>108.43807692307693</v>
+      </c>
+      <c r="H13">
         <v>20</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1540.3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>31</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>164</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>166</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>183</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>235</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>239</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>19</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>46</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>31</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>244</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>24</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1219.17</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>21</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>6487.48</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>633</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>159</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>10.25</v>
       </c>
-      <c r="AB13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AC13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD13">
         <v>3</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>23</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
       <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>682</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>18048</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>26776392</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>131279</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>7</v>
       </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="s">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2656,91 +2714,95 @@
         <v>289</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>60.296816810344829</v>
+      </c>
+      <c r="H14">
         <v>15</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2326.12</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>17</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>165</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>167</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>184</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>241</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>15</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>55</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>246</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>48</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>360.16</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2115.25</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>729</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>233</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>2.9</v>
       </c>
-      <c r="AB14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AC14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>2</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>4</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>51</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>659</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>12044</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>8646814</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>70318</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2</v>
       </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2760,97 +2822,101 @@
         <v>434</v>
       </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>33.928495608531996</v>
+      </c>
+      <c r="H15">
         <v>11</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2835.86</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>165</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>167</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>185</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>236</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>241</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>21</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>17</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>244</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>16</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2295.36</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>18</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>15384.97</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1292</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>395</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>11.9</v>
       </c>
-      <c r="AB15" t="b">
+      <c r="AC15" t="b">
         <v>1</v>
       </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
       <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>8</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>52</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>856</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>16786</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>14695234</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>115769</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>4</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2870,91 +2936,95 @@
         <v>147</v>
       </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>89.575714285714284</v>
+      </c>
+      <c r="H16">
         <v>10</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2847.59</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>9</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>165</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>167</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>186</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>241</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>20</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>35</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>245</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>39</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>564.63</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>5574.87</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>446</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>108</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>12.5</v>
       </c>
-      <c r="AB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16">
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16">
         <v>3</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>17</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>40</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>207</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>9101</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>8181315</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>69687</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2974,94 +3044,98 @@
         <v>267</v>
       </c>
       <c r="G17">
+        <f t="shared" si="0"/>
+        <v>67.660127226463104</v>
+      </c>
+      <c r="H17">
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2925.62</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>164</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>166</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>187</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>239</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>21</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>44</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>245</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>40</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>529.99</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>42</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3647.35</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>819</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>255</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>4.45</v>
       </c>
-      <c r="AB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AC17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <v>2</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>8</v>
       </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
       <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>1318</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>22370</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>14000426</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>152258</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>8</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3081,36 +3155,37 @@
         <v>245</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
+        <v>67.557688202247192</v>
+      </c>
+      <c r="H18">
         <v>13</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2456.06</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>164</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>169</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>188</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>239</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>23</v>
       </c>
-      <c r="AB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AC18" t="b">
         <v>0</v>
       </c>
       <c r="AD18">
@@ -3120,28 +3195,31 @@
         <v>0</v>
       </c>
       <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>138</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>3632</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>4100879</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>16946</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>3</v>
       </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3161,97 +3239,101 @@
         <v>253</v>
       </c>
       <c r="G19">
+        <f t="shared" si="0"/>
+        <v>54.541158018867925</v>
+      </c>
+      <c r="H19">
         <v>17</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1944.01</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>20</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>165</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>167</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>189</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>235</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>240</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>25</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>29</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>244</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>37</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>642.37</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>47</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>6983.23</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1113</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>395</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>6.27</v>
       </c>
-      <c r="AB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19">
         <v>4</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>15</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>57</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>295</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>9202</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>13243344</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>69625</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2</v>
       </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3271,36 +3353,37 @@
         <v>231</v>
       </c>
       <c r="G20">
+        <f t="shared" si="0"/>
+        <v>61.56609919571045</v>
+      </c>
+      <c r="H20">
         <v>37</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>842.49</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>44</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>165</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>4</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>170</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>190</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>242</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>20</v>
       </c>
-      <c r="AB20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AC20" t="b">
         <v>0</v>
       </c>
       <c r="AD20">
@@ -3310,28 +3393,31 @@
         <v>0</v>
       </c>
       <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>883</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>5934</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>6149749</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>42431</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>3</v>
       </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="s">
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3351,100 +3437,104 @@
         <v>344</v>
       </c>
       <c r="G21">
+        <f t="shared" si="0"/>
+        <v>37.411319148936165</v>
+      </c>
+      <c r="H21">
         <v>18</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1919.21</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>12</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>164</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>166</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>191</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>236</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>239</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>24</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>37</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>22</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>244</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>25</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>1039.6400000000001</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>26</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>9877.98</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>1309</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>409</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>7.55</v>
       </c>
-      <c r="AB21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <v>4</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>6</v>
       </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
       <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>2453</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>34501</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>21090420</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>217350</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>9</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3463,83 +3553,87 @@
       <c r="F22">
         <v>129</v>
       </c>
-      <c r="I22">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>86.78341269841269</v>
+      </c>
+      <c r="J22">
         <v>16</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>165</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>167</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>192</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>240</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>20</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>49</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>246</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>32</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>3027.69</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>333</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>76</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>9.09</v>
       </c>
-      <c r="AB22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC22">
+      <c r="AC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22">
         <v>2</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>18</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>216</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>7639</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3214694</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>58540</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3559,94 +3653,98 @@
         <v>296</v>
       </c>
       <c r="G23">
+        <f t="shared" si="0"/>
+        <v>33.27119861830743</v>
+      </c>
+      <c r="H23">
         <v>16</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2090.88</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>10</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>165</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>167</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>193</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>240</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>19</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>38</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>245</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>31</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>891.34</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>35</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>4868.21</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>910</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>306</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>5.35</v>
       </c>
-      <c r="AB23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+      <c r="AC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <v>3</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>20</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>40</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>378</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>8930</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>11967758</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>61421</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="s">
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3666,36 +3764,37 @@
         <v>410</v>
       </c>
       <c r="G24">
+        <f t="shared" si="0"/>
+        <v>19.730616969696971</v>
+      </c>
+      <c r="H24">
         <v>22</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1399.8</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>11</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>164</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>169</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>194</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>242</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>20</v>
       </c>
-      <c r="AB24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="AC24" t="b">
         <v>0</v>
       </c>
       <c r="AD24">
@@ -3705,28 +3804,31 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>277</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>4846</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>2778894</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>19619</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>4</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="s">
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3746,94 +3848,98 @@
         <v>245</v>
       </c>
       <c r="G25">
+        <f t="shared" si="0"/>
+        <v>38.254371359223299</v>
+      </c>
+      <c r="H25">
         <v>27</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1109.08</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>26</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>165</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>167</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>195</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>241</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>19</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>32</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>244</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>35</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>752.2</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>25</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>6097.64</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1130</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>368</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>5.4</v>
       </c>
-      <c r="AB25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AC25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <v>3</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
       <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>61</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>561</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>14927</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>8696777</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>87357</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>3</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="s">
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3853,85 +3959,89 @@
         <v>158</v>
       </c>
       <c r="G26">
+        <f t="shared" si="0"/>
+        <v>48.194069400630916</v>
+      </c>
+      <c r="H26">
         <v>34</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>925.23</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>36</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>165</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>167</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>196</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>240</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>21</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>54</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>246</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2449.84</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>439</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>105</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>5.58</v>
       </c>
-      <c r="AB26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="AC26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <v>3</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>14</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>52</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>109</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>6072</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>6952810</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>47660</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3951,100 +4061,104 @@
         <v>267</v>
       </c>
       <c r="G27">
+        <f t="shared" si="0"/>
+        <v>25.780685542168673</v>
+      </c>
+      <c r="H27">
         <v>19</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1742.59</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>22</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>164</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>166</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>197</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>237</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>239</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>28</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>25</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>16</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>243</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>11</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>4420.1400000000003</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>9</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>16431.189999999999</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1264</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>391</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>13</v>
       </c>
-      <c r="AB27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC27">
+      <c r="AC27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27">
         <v>4</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
         <v>1567</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>53869</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>24636725</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>187029</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>11</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4064,94 +4178,98 @@
         <v>173</v>
       </c>
       <c r="G28">
+        <f t="shared" si="0"/>
+        <v>43.344056939501783</v>
+      </c>
+      <c r="H28">
         <v>29</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1020.15</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>45</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>164</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>166</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>198</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>239</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>21</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>37</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>245</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>20</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1533.4</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>23</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>5008.46</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>769</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>184</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>6.51</v>
       </c>
-      <c r="AB28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <v>2</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>8</v>
       </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
       <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
         <v>848</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>24509</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>5826760</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>131462</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>8</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4171,73 +4289,77 @@
         <v>202</v>
       </c>
       <c r="G29">
+        <f t="shared" si="0"/>
+        <v>30.137784741144412</v>
+      </c>
+      <c r="H29">
         <v>26</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1167.2</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>46</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>165</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>168</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>199</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>240</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>24</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>22</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>35</v>
       </c>
-      <c r="AB29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>1</v>
+      <c r="AC29" t="b">
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>1</v>
       </c>
       <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
         <v>47</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1016</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>29954</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>8050519</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>84740</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4257,97 +4379,101 @@
         <v>226</v>
       </c>
       <c r="G30">
+        <f t="shared" si="0"/>
+        <v>28.641684895833333</v>
+      </c>
+      <c r="H30">
         <v>23</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1317.47</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>23</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>165</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>168</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>200</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>240</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>20</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>28</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>21</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>244</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>19</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1912.03</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>19</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>10789.39</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>934</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>286</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>11.55</v>
       </c>
-      <c r="AB30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC30">
+      <c r="AC30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD30">
         <v>4</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
       <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
         <v>98</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>3229</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>49003</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>14191030</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>139412</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>4</v>
       </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="s">
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4367,36 +4493,37 @@
         <v>217</v>
       </c>
       <c r="G31">
+        <f t="shared" si="0"/>
+        <v>29.133323432343236</v>
+      </c>
+      <c r="H31">
         <v>40</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>665.18</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>47</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>164</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>169</v>
       </c>
-      <c r="M31" t="s">
-        <v>188</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="P31" t="s">
         <v>239</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>21</v>
       </c>
-      <c r="AB31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC31">
+      <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31">
@@ -4406,28 +4533,31 @@
         <v>0</v>
       </c>
       <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
         <v>156</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>3984</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1120439</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>13396</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>3</v>
       </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="s">
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4447,94 +4577,98 @@
         <v>209</v>
       </c>
       <c r="G32">
+        <f t="shared" si="0"/>
+        <v>23.364460916442049</v>
+      </c>
+      <c r="H32">
         <v>38</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>731.01</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>27</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>164</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>166</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>201</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>242</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>19</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>33</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>245</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>43</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>457.82</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>40</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>5765.03</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>684</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>214</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>8.43</v>
       </c>
-      <c r="AB32" t="b">
+      <c r="AC32" t="b">
         <v>1</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>22</v>
       </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
       <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
         <v>640</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>15466</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>12470715</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>127895</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>6</v>
       </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4554,85 +4688,89 @@
         <v>180</v>
       </c>
       <c r="G33">
+        <f t="shared" si="0"/>
+        <v>27.982674342105263</v>
+      </c>
+      <c r="H33">
         <v>21</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1441.98</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>35</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>165</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>167</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>202</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>241</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>19</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>57</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>246</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>1801.33</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>558</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>161</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>3.23</v>
       </c>
-      <c r="AB33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC33">
+      <c r="AC33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD33">
         <v>2</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>10</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>66</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>531</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>10867</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>15311254</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>64428</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>1</v>
       </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="s">
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4652,97 +4790,101 @@
         <v>226</v>
       </c>
       <c r="G34">
+        <f t="shared" si="0"/>
+        <v>23.08495867768595</v>
+      </c>
+      <c r="H34">
         <v>32</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>949.13</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>30</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>165</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>2</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>168</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>203</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>241</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>26</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>34</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>51</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>246</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>36</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>657.45</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>44</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>2722.52</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>523</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>178</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>5.21</v>
       </c>
-      <c r="AB34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC34">
+      <c r="AC34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD34">
         <v>3</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>19</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>160</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>1506</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>33329</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>13002216</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>113452</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4761,62 +4903,66 @@
       <c r="F35">
         <v>165</v>
       </c>
-      <c r="I35">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>40.175615763546794</v>
+      </c>
+      <c r="J35">
         <v>42</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>164</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>1</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>166</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>204</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>242</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>17</v>
       </c>
-      <c r="AB35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC35">
+      <c r="AC35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD35">
         <v>1</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>18</v>
       </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
       <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
         <v>243</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>10263</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>5638018</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>61750</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>1</v>
       </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="s">
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4835,31 +4981,32 @@
       <c r="F36">
         <v>257</v>
       </c>
-      <c r="I36">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>19.259661835748791</v>
+      </c>
+      <c r="J36">
         <v>39</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>165</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>4</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>170</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>205</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>242</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>17</v>
       </c>
-      <c r="AB36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36">
+      <c r="AC36" t="b">
         <v>0</v>
       </c>
       <c r="AD36">
@@ -4869,28 +5016,31 @@
         <v>0</v>
       </c>
       <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
         <v>587</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>6371</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>3556072</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>32194</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>2</v>
       </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="s">
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4910,70 +5060,74 @@
         <v>216</v>
       </c>
       <c r="G37">
+        <f t="shared" si="0"/>
+        <v>20.614301369863014</v>
+      </c>
+      <c r="H37">
         <v>33</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>934.47</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>40</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>164</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>1</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>166</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>206</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>242</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>20</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>58</v>
       </c>
-      <c r="AB37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC37">
+      <c r="AC37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD37">
         <v>2</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>10</v>
       </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
       <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
         <v>907</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>20160</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>7248810</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>178700</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>4</v>
       </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="s">
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4993,36 +5147,37 @@
         <v>252</v>
       </c>
       <c r="G38">
+        <f t="shared" si="0"/>
+        <v>18.14652380952381</v>
+      </c>
+      <c r="H38">
         <v>47</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>366.26</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>28</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>165</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>4</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>170</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>207</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>242</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>15</v>
       </c>
-      <c r="AB38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC38">
+      <c r="AC38" t="b">
         <v>0</v>
       </c>
       <c r="AD38">
@@ -5032,28 +5187,31 @@
         <v>0</v>
       </c>
       <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
         <v>306</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>5473</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>2026194</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>29702</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>3</v>
       </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="s">
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5073,103 +5231,107 @@
         <v>261</v>
       </c>
       <c r="G39">
+        <f t="shared" si="0"/>
+        <v>17.71691542288557</v>
+      </c>
+      <c r="H39">
         <v>24</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1312.97</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>34</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>164</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>166</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>208</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>238</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>239</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>28</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>21</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>30</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>27</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>244</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>47</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>383.38</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>37</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>7392.29</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>1042</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>399</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>7.09</v>
       </c>
-      <c r="AB39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC39">
+      <c r="AC39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD39">
         <v>5</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>13</v>
       </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
       <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
         <v>1586</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>33307</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>13742317</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>93677</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>6</v>
       </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="s">
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5189,94 +5351,98 @@
         <v>194</v>
       </c>
       <c r="G40">
+        <f t="shared" si="0"/>
+        <v>18.244846153846154</v>
+      </c>
+      <c r="H40">
         <v>39</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>676.57</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>32</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>165</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>3</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>167</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>209</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>241</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>25</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>28</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>244</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>30</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>920.65</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>30</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>7365.14</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>681</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>197</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>10.82</v>
       </c>
-      <c r="AB40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC40">
+      <c r="AC40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD40">
         <v>4</v>
       </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
       <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
         <v>55</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>409</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>9971</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>10601074</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>73762</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>1</v>
       </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="s">
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5296,94 +5462,98 @@
         <v>191</v>
       </c>
       <c r="G41">
+        <f t="shared" si="0"/>
+        <v>19.911940298507464</v>
+      </c>
+      <c r="H41">
         <v>30</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>970.23</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>43</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>164</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>1</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>166</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>210</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>239</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>20</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>45</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>245</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>41</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>527.41999999999996</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>48</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>3608.23</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>696</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>230</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>5.18</v>
       </c>
-      <c r="AB41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC41">
+      <c r="AC41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD41">
         <v>3</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>13</v>
       </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
       <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
         <v>466</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>11435</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>9817299</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>67140</v>
       </c>
-      <c r="AJ41">
+      <c r="AK41">
         <v>5</v>
       </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="s">
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5403,88 +5573,92 @@
         <v>207</v>
       </c>
       <c r="G42">
+        <f t="shared" si="0"/>
+        <v>20.778050511945391</v>
+      </c>
+      <c r="H42">
         <v>44</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>437.73</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>165</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>2</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>168</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>211</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>236</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>240</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>23</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>48</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>39</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>245</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>4839.99</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>474</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>135</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>10.210000000000001</v>
       </c>
-      <c r="AB42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC42">
+      <c r="AC42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD42">
         <v>4</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>22</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>174</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>367</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>25127</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>8565664</v>
       </c>
-      <c r="AI42">
+      <c r="AJ42">
         <v>88450</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
-      <c r="AL42" t="s">
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5503,77 +5677,81 @@
       <c r="F43">
         <v>167</v>
       </c>
-      <c r="J43" t="s">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>21.804598540145985</v>
+      </c>
+      <c r="K43" t="s">
         <v>164</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>1</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>166</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>212</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>242</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>23</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>52</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>246</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>2577.96</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>445</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>107</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>5.79</v>
       </c>
-      <c r="AB43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC43">
+      <c r="AC43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD43">
         <v>2</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>16</v>
       </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
       <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
         <v>153</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>9487</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>8769256</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>66296</v>
       </c>
-      <c r="AJ43">
+      <c r="AK43">
         <v>4</v>
       </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="s">
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5593,85 +5771,89 @@
         <v>128</v>
       </c>
       <c r="G44">
+        <f t="shared" si="0"/>
+        <v>30.931802590673577</v>
+      </c>
+      <c r="H44">
         <v>45</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>385.79</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>48</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>164</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>1</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>166</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>213</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>242</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>16</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>61</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>246</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>300.01</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>247</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>39</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>1.21</v>
       </c>
-      <c r="AB44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC44">
+      <c r="AC44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD44">
         <v>2</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>13</v>
       </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
       <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
         <v>72</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>6979</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>4265744</v>
       </c>
-      <c r="AI44">
+      <c r="AJ44">
         <v>35474</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>1</v>
       </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="s">
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5691,36 +5873,37 @@
         <v>198</v>
       </c>
       <c r="G45">
+        <f t="shared" si="0"/>
+        <v>15.90116304347826</v>
+      </c>
+      <c r="H45">
         <v>25</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>1275.5</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>29</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>165</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>4</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>170</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>214</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>242</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>16</v>
       </c>
-      <c r="AB45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC45">
+      <c r="AC45" t="b">
         <v>0</v>
       </c>
       <c r="AD45">
@@ -5730,28 +5913,31 @@
         <v>0</v>
       </c>
       <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
         <v>177</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>4148</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>2245875</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>22774</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
-      <c r="AL45" t="s">
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5770,77 +5956,81 @@
       <c r="F46">
         <v>155</v>
       </c>
-      <c r="J46" t="s">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>27.130428571428574</v>
+      </c>
+      <c r="K46" t="s">
         <v>164</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>1</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>166</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>215</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>242</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>17</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>59</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>246</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>1059.93</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>406</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>92</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>2.61</v>
       </c>
-      <c r="AB46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC46">
+      <c r="AC46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD46">
         <v>2</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>12</v>
       </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
       <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
         <v>260</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>11741</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>8820423</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>81482</v>
       </c>
-      <c r="AJ46">
+      <c r="AK46">
         <v>1</v>
       </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="s">
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5860,91 +6050,95 @@
         <v>123</v>
       </c>
       <c r="G47">
+        <f t="shared" si="0"/>
+        <v>29.910578947368421</v>
+      </c>
+      <c r="H47">
         <v>36</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>864.11</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>33</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>165</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>3</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>167</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>216</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>241</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>16</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>46</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>245</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>42</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>466.84</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>3319.3</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>450</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>123</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>7.38</v>
       </c>
-      <c r="AB47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC47">
+      <c r="AC47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD47">
         <v>3</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>5</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>70</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>251</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>7716</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>5255893</v>
       </c>
-      <c r="AI47">
+      <c r="AJ47">
         <v>47167</v>
       </c>
-      <c r="AJ47">
+      <c r="AK47">
         <v>1</v>
       </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="s">
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5964,73 +6158,77 @@
         <v>238</v>
       </c>
       <c r="G48">
+        <f t="shared" si="0"/>
+        <v>14.811053333333334</v>
+      </c>
+      <c r="H48">
         <v>48</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>352.64</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>41</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>165</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>1</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>171</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>217</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>240</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>20</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>17</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>18</v>
       </c>
-      <c r="AB48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC48">
+      <c r="AC48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD48">
         <v>4</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>5</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>161</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>3975</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>48254</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>11488947</v>
       </c>
-      <c r="AI48">
+      <c r="AJ48">
         <v>140696</v>
       </c>
-      <c r="AJ48">
+      <c r="AK48">
         <v>6</v>
       </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="s">
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6050,33 +6248,34 @@
         <v>191</v>
       </c>
       <c r="G49">
+        <f t="shared" si="0"/>
+        <v>20.40470075757576</v>
+      </c>
+      <c r="H49">
         <v>46</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>372.82</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>165</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>4</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>170</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>218</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>242</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>20</v>
       </c>
-      <c r="AB49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC49">
+      <c r="AC49" t="b">
         <v>0</v>
       </c>
       <c r="AD49">
@@ -6086,28 +6285,31 @@
         <v>0</v>
       </c>
       <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
         <v>250</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>4831</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>1967885</v>
       </c>
-      <c r="AI49">
+      <c r="AJ49">
         <v>28102</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
-      <c r="AL49" t="s">
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6127,97 +6329,101 @@
         <v>217</v>
       </c>
       <c r="G50">
+        <f t="shared" si="0"/>
+        <v>16.76117610062893</v>
+      </c>
+      <c r="H50">
         <v>31</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>953.7</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>24</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>165</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>2</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>168</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>219</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>241</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>24</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>45</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>42</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>245</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>32</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>884.73</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>33</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>3919.64</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>673</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>167</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>5.82</v>
       </c>
-      <c r="AB50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC50">
+      <c r="AC50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD50">
         <v>4</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>8</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>121</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>1295</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>46088</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>12376511</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <v>182027</v>
       </c>
-      <c r="AJ50">
+      <c r="AK50">
         <v>2</v>
       </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="s">
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6236,92 +6442,96 @@
       <c r="F51">
         <v>184</v>
       </c>
-      <c r="I51">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>14.436923943661972</v>
+      </c>
+      <c r="J51">
         <v>38</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>165</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>2</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>168</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>220</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>240</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>21</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>31</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>41</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>245</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>22</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>1446.07</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>34</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>4570.38</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>597</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>214</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>7.66</v>
       </c>
-      <c r="AB51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC51">
+      <c r="AC51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD51">
         <v>3</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>10</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>86</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>4421</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>62611</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>9497270</v>
       </c>
-      <c r="AI51">
+      <c r="AJ51">
         <v>273692</v>
       </c>
-      <c r="AJ51">
+      <c r="AK51">
         <v>1</v>
       </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="s">
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6341,36 +6551,37 @@
         <v>157</v>
       </c>
       <c r="G52">
+        <f t="shared" si="0"/>
+        <v>19.553889615384616</v>
+      </c>
+      <c r="H52">
         <v>35</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>865.32</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>25</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>165</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>4</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>170</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>221</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>242</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>16</v>
       </c>
-      <c r="AB52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC52">
+      <c r="AC52" t="b">
         <v>0</v>
       </c>
       <c r="AD52">
@@ -6380,28 +6591,31 @@
         <v>0</v>
       </c>
       <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
         <v>448</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>5600</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>5236249</v>
       </c>
-      <c r="AI52">
+      <c r="AJ52">
         <v>59937</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
-      <c r="AL52" t="s">
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6420,28 +6634,29 @@
       <c r="F53">
         <v>219</v>
       </c>
-      <c r="J53" t="s">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>14.582567647058825</v>
+      </c>
+      <c r="K53" t="s">
         <v>165</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>4</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>170</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>222</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>242</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>22</v>
       </c>
-      <c r="AB53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC53">
+      <c r="AC53" t="b">
         <v>0</v>
       </c>
       <c r="AD53">
@@ -6451,28 +6666,31 @@
         <v>0</v>
       </c>
       <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
         <v>348</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>5619</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>4265092</v>
       </c>
-      <c r="AI53">
+      <c r="AJ53">
         <v>48615</v>
       </c>
-      <c r="AJ53">
+      <c r="AK53">
         <v>1</v>
       </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="s">
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6492,64 +6710,68 @@
         <v>122</v>
       </c>
       <c r="G54">
+        <f t="shared" si="0"/>
+        <v>28.656242236024845</v>
+      </c>
+      <c r="H54">
         <v>42</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>518.83000000000004</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>164</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>1</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>166</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>223</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>242</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>18</v>
       </c>
-      <c r="AB54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC54">
+      <c r="AC54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD54">
         <v>2</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>12</v>
       </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
       <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
         <v>521</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>14193</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>2640064</v>
       </c>
-      <c r="AI54">
+      <c r="AJ54">
         <v>62794</v>
       </c>
-      <c r="AJ54">
+      <c r="AK54">
         <v>5</v>
       </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="s">
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6568,59 +6790,63 @@
       <c r="F55">
         <v>132</v>
       </c>
-      <c r="J55" t="s">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>19.690188172043012</v>
+      </c>
+      <c r="K55" t="s">
         <v>164</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>1</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>166</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>224</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>239</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>16</v>
       </c>
-      <c r="AB55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC55">
+      <c r="AC55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD55">
         <v>1</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>10</v>
       </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
       <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
         <v>138</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>8086</v>
       </c>
-      <c r="AH55">
+      <c r="AI55">
         <v>4633144</v>
       </c>
-      <c r="AI55">
+      <c r="AJ55">
         <v>50358</v>
       </c>
-      <c r="AJ55">
+      <c r="AK55">
         <v>3</v>
       </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="s">
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6640,36 +6866,37 @@
         <v>140</v>
       </c>
       <c r="G56">
+        <f t="shared" si="0"/>
+        <v>13.072969957081545</v>
+      </c>
+      <c r="H56">
         <v>43</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>461.64</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>37</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>165</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>4</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>170</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>225</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>242</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>15</v>
       </c>
-      <c r="AB56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC56">
+      <c r="AC56" t="b">
         <v>0</v>
       </c>
       <c r="AD56">
@@ -6679,28 +6906,31 @@
         <v>0</v>
       </c>
       <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
         <v>269</v>
       </c>
-      <c r="AG56">
+      <c r="AH56">
         <v>4886</v>
       </c>
-      <c r="AH56">
+      <c r="AI56">
         <v>3003373</v>
       </c>
-      <c r="AI56">
+      <c r="AJ56">
         <v>33828</v>
       </c>
-      <c r="AJ56">
+      <c r="AK56">
         <v>2</v>
       </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="s">
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6719,86 +6949,90 @@
       <c r="F57">
         <v>110</v>
       </c>
-      <c r="J57" t="s">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>16.25768115942029</v>
+      </c>
+      <c r="K57" t="s">
         <v>165</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>3</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>167</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>226</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>240</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>21</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>48</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>245</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>46</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>393.78</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>46</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>3108.14</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>711</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>234</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>4.37</v>
       </c>
-      <c r="AB57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC57">
+      <c r="AC57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD57">
         <v>2</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>17</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>46</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>170</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>7743</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>9506269</v>
       </c>
-      <c r="AI57">
+      <c r="AJ57">
         <v>58392</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
-      <c r="AL57" t="s">
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6817,77 +7051,81 @@
       <c r="F58">
         <v>133</v>
       </c>
-      <c r="J58" t="s">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>9.8475126903553303</v>
+      </c>
+      <c r="K58" t="s">
         <v>165</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>3</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>167</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>227</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>241</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>22</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>62</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>246</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>298.70999999999998</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>329</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>76</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>0.91</v>
       </c>
-      <c r="AB58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC58">
+      <c r="AC58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD58">
         <v>3</v>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <v>4</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <v>51</v>
       </c>
-      <c r="AF58">
+      <c r="AG58">
         <v>92</v>
       </c>
-      <c r="AG58">
+      <c r="AH58">
         <v>5394</v>
       </c>
-      <c r="AH58">
+      <c r="AI58">
         <v>2967115</v>
       </c>
-      <c r="AI58">
+      <c r="AJ58">
         <v>34853</v>
       </c>
-      <c r="AJ58">
+      <c r="AK58">
         <v>1</v>
       </c>
-      <c r="AK58">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="s">
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6906,28 +7144,29 @@
       <c r="F59">
         <v>145</v>
       </c>
-      <c r="J59" t="s">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>7.7444263157894735</v>
+      </c>
+      <c r="K59" t="s">
         <v>165</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>4</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>170</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>228</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>242</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>14</v>
       </c>
-      <c r="AB59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC59">
+      <c r="AC59" t="b">
         <v>0</v>
       </c>
       <c r="AD59">
@@ -6937,28 +7176,31 @@
         <v>0</v>
       </c>
       <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
         <v>525</v>
       </c>
-      <c r="AG59">
+      <c r="AH59">
         <v>5649</v>
       </c>
-      <c r="AH59">
+      <c r="AI59">
         <v>4663083</v>
       </c>
-      <c r="AI59">
+      <c r="AJ59">
         <v>43201</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
-      <c r="AL59" t="s">
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6978,82 +7220,86 @@
         <v>108</v>
       </c>
       <c r="G60">
+        <f t="shared" si="0"/>
+        <v>8.2040034722222224</v>
+      </c>
+      <c r="H60">
         <v>41</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>655.03</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>165</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>3</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>167</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>229</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>240</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>20</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>60</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>246</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>802.73</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>378</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>99</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>2.12</v>
       </c>
-      <c r="AB60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC60">
+      <c r="AC60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD60">
         <v>2</v>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <v>22</v>
       </c>
-      <c r="AE60">
+      <c r="AF60">
         <v>66</v>
       </c>
-      <c r="AF60">
+      <c r="AG60">
         <v>90</v>
       </c>
-      <c r="AG60">
+      <c r="AH60">
         <v>5258</v>
       </c>
-      <c r="AH60">
+      <c r="AI60">
         <v>2733443</v>
       </c>
-      <c r="AI60">
+      <c r="AJ60">
         <v>27027</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
-      <c r="AL60" t="s">
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7072,28 +7318,29 @@
       <c r="F61">
         <v>104</v>
       </c>
-      <c r="J61" t="s">
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>6.6255388489208631</v>
+      </c>
+      <c r="K61" t="s">
         <v>165</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>4</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>170</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>230</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>242</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>18</v>
       </c>
-      <c r="AB61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC61">
+      <c r="AC61" t="b">
         <v>0</v>
       </c>
       <c r="AD61">
@@ -7103,28 +7350,31 @@
         <v>0</v>
       </c>
       <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
         <v>83</v>
       </c>
-      <c r="AG61">
+      <c r="AH61">
         <v>2901</v>
       </c>
-      <c r="AH61">
+      <c r="AI61">
         <v>1945863</v>
       </c>
-      <c r="AI61">
+      <c r="AJ61">
         <v>16496</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
-      <c r="AL61" t="s">
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7143,28 +7393,29 @@
       <c r="F62">
         <v>112</v>
       </c>
-      <c r="J62" t="s">
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>4.9247426470588236</v>
+      </c>
+      <c r="K62" t="s">
         <v>165</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>4</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>170</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>231</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>242</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>14</v>
       </c>
-      <c r="AB62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC62">
+      <c r="AC62" t="b">
         <v>0</v>
       </c>
       <c r="AD62">
@@ -7174,28 +7425,31 @@
         <v>0</v>
       </c>
       <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
         <v>126</v>
       </c>
-      <c r="AG62">
+      <c r="AH62">
         <v>2870</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>592968</v>
       </c>
-      <c r="AI62">
+      <c r="AJ62">
         <v>25511</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
-      <c r="AL62" t="s">
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7214,28 +7468,29 @@
       <c r="F63">
         <v>158</v>
       </c>
-      <c r="J63" t="s">
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>2.301325581395349</v>
+      </c>
+      <c r="K63" t="s">
         <v>164</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>2</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>169</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>232</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>242</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>16</v>
       </c>
-      <c r="AB63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC63">
+      <c r="AC63" t="b">
         <v>0</v>
       </c>
       <c r="AD63">
@@ -7245,28 +7500,31 @@
         <v>0</v>
       </c>
       <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
         <v>149</v>
       </c>
-      <c r="AG63">
+      <c r="AH63">
         <v>3385</v>
       </c>
-      <c r="AH63">
+      <c r="AI63">
         <v>1436223</v>
       </c>
-      <c r="AI63">
+      <c r="AJ63">
         <v>10568</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
-      <c r="AL63" t="s">
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7285,28 +7543,29 @@
       <c r="F64">
         <v>147</v>
       </c>
-      <c r="J64" t="s">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>1.514675824175824</v>
+      </c>
+      <c r="K64" t="s">
         <v>164</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>2</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>169</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>233</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>242</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>19</v>
       </c>
-      <c r="AB64" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC64">
+      <c r="AC64" t="b">
         <v>0</v>
       </c>
       <c r="AD64">
@@ -7316,28 +7575,31 @@
         <v>0</v>
       </c>
       <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
         <v>62</v>
       </c>
-      <c r="AG64">
+      <c r="AH64">
         <v>2421</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <v>581191</v>
       </c>
-      <c r="AI64">
+      <c r="AJ64">
         <v>11824</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
-      <c r="AL64" t="s">
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7356,28 +7618,29 @@
       <c r="F65">
         <v>107</v>
       </c>
-      <c r="J65" t="s">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>1.6516535433070865</v>
+      </c>
+      <c r="K65" t="s">
         <v>164</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>2</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>169</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>234</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>242</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>17</v>
       </c>
-      <c r="AB65" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC65">
+      <c r="AC65" t="b">
         <v>0</v>
       </c>
       <c r="AD65">
@@ -7387,29 +7650,32 @@
         <v>0</v>
       </c>
       <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
         <v>34</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <v>1898</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <v>509091</v>
       </c>
-      <c r="AI65">
+      <c r="AJ65">
         <v>7869</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
-      <c r="AL65" t="s">
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AM65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
